--- a/backup/cleaned-data.xlsx
+++ b/backup/cleaned-data.xlsx
@@ -8,38 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\autre\GitHub\Portfolio\Training-D4G\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39212474-1E52-48C0-9C53-C2123579B70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486F6DBC-7D2E-44D1-9130-193017827F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="811" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="811" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VueCycleDeVie" sheetId="16" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">VueCycleDeVie!$A$1:$Q$109</definedName>
-  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <customWorkbookViews>
     <customWorkbookView name="Filtre 1" guid="{97450F20-567E-4247-9179-EF7D41F521BB}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="280">
   <si>
     <t>STRATEGIE</t>
   </si>
   <si>
     <t>SPECIFICATIONS</t>
-  </si>
-  <si>
-    <t>STR-1</t>
   </si>
   <si>
     <t>STR-1.01</t>
@@ -301,9 +290,6 @@
     <t>Au moins 1 ODD couvert = 100 ; 0 ODD = 0</t>
   </si>
   <si>
-    <t>STR-2</t>
-  </si>
-  <si>
     <t>STR-2.01</t>
   </si>
   <si>
@@ -370,9 +356,6 @@
     <t>Les aspects Numérique Responsable sont-ils propagés et entretenus sur l'ensemble des acteurs ?</t>
   </si>
   <si>
-    <t>STR-3</t>
-  </si>
-  <si>
     <t>STR-3.01</t>
   </si>
   <si>
@@ -493,9 +476,6 @@
     <t>Document validé et exposé = 100 ; Partiel = 50 ; Prévu = 25 ; Non = 0</t>
   </si>
   <si>
-    <t>STR-4</t>
-  </si>
-  <si>
     <t>STR-4.C01</t>
   </si>
   <si>
@@ -550,9 +530,6 @@
     <t>Comment choisir les solutions techniques les plus propices au NR ?</t>
   </si>
   <si>
-    <t>SPC-1</t>
-  </si>
-  <si>
     <t>SPC-1.01</t>
   </si>
   <si>
@@ -598,9 +575,6 @@
     <t>Chaque partie-prenante a-t-elle la latitude de prendre des décisions pouvant influer sur l'impact environnemental ?</t>
   </si>
   <si>
-    <t>SPC-2</t>
-  </si>
-  <si>
     <t>SPC-2.C01</t>
   </si>
   <si>
@@ -634,9 +608,6 @@
     <t>ProductOwner ; RSE/NR</t>
   </si>
   <si>
-    <t>SPC-3</t>
-  </si>
-  <si>
     <t>SPC-3.C01</t>
   </si>
   <si>
@@ -709,9 +680,6 @@
     <t>Dev ;ProjectMngr ; ProductOwner ; ITMngr</t>
   </si>
   <si>
-    <t>SPC-4</t>
-  </si>
-  <si>
     <t>SPC-4.01</t>
   </si>
   <si>
@@ -812,9 +780,6 @@
   </si>
   <si>
     <t>Analysée = 100 ; présumée = 50 ; Non = 0</t>
-  </si>
-  <si>
-    <t>SPC-5</t>
   </si>
   <si>
     <t>SPC-5.01</t>
@@ -1239,136 +1204,144 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AG109"/>
+  <dimension ref="A1:AG100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="U100" sqref="U100"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:L100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="9" customWidth="1"/>
     <col min="2" max="3" width="6" style="9" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" style="9" customWidth="1"/>
     <col min="6" max="6" width="28" style="9" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" style="9" customWidth="1"/>
-    <col min="8" max="12" width="14.44140625" style="9"/>
-    <col min="15" max="15" width="12.88671875" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="9" customWidth="1"/>
+    <col min="8" max="12" width="14.42578125" style="9"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
-    <col min="30" max="30" width="18.33203125" customWidth="1"/>
-    <col min="34" max="16384" width="14.44140625" style="9"/>
+    <col min="30" max="30" width="18.28515625" customWidth="1"/>
+    <col min="34" max="16384" width="14.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1377,292 +1350,292 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2">
+        <v>100</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H6" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K6" s="2">
         <v>100</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="92.4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="2">
-        <v>100</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="2">
+        <v>100</v>
+      </c>
       <c r="L9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="2">
-        <v>100</v>
+        <v>42</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>44</v>
+        <v>24</v>
+      </c>
+      <c r="K11" s="2">
+        <v>100</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="2">
-        <v>100</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1671,86 +1644,86 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="H14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="2">
+        <v>100</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="2">
-        <v>100</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H15" s="4"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1759,24 +1732,24 @@
       <c r="K16" s="7"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1785,24 +1758,24 @@
       <c r="K17" s="7"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1811,24 +1784,24 @@
       <c r="K18" s="7"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="51.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1837,110 +1810,120 @@
       <c r="K19" s="7"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="H20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="2">
+        <v>100</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21" s="2">
         <v>100</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="K22" s="2">
         <v>100</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>4</v>
@@ -1949,346 +1932,344 @@
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K23" s="2">
-        <v>100</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H23" s="4"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="H24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="K25" s="2">
+        <v>100</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>82</v>
+      <c r="B26" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="H26" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="K26" s="2">
         <v>100</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>85</v>
+      <c r="B27" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K27" s="2">
+        <v>90</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K28" s="2">
         <v>100</v>
       </c>
-      <c r="L27" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="L28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>93</v>
+        <v>73</v>
+      </c>
+      <c r="K29" s="2">
+        <v>100</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H30" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K30" s="2">
+        <v>98</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L30" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31" s="2">
-        <v>100</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2297,50 +2278,60 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="2">
+        <v>100</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -2349,274 +2340,292 @@
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="K36" s="2">
         <v>100</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K37" s="2">
+        <v>100</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="H38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K39" s="2">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K40" s="2">
-        <v>100</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="51.6" x14ac:dyDescent="0.25">
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" ht="78.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="H43" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K43" s="2">
+        <v>100</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -2625,96 +2634,80 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="61.8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>135</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="66" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K46" s="2">
-        <v>100</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -2723,71 +2716,79 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
     </row>
-    <row r="48" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G48" s="4"/>
-      <c r="H48" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>144</v>
+      <c r="B49" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-    </row>
-    <row r="50" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K49" s="8">
+        <v>100</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>4</v>
@@ -2796,7 +2797,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2805,24 +2806,24 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
     </row>
-    <row r="51" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -2831,80 +2832,90 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
     </row>
-    <row r="52" spans="1:12" ht="66" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>150</v>
+      <c r="B52" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G52" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H52" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="K52" s="8">
+      <c r="I52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K52" s="2">
         <v>100</v>
       </c>
-      <c r="L52" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L52" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
+      <c r="H53" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-    </row>
-    <row r="54" spans="1:12" ht="61.8" x14ac:dyDescent="0.25">
+      <c r="L53" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -2913,24 +2924,24 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
     </row>
-    <row r="55" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -2939,90 +2950,76 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G56" s="4"/>
-      <c r="H56" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K56" s="2">
-        <v>100</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G57" s="4"/>
-      <c r="H57" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -3031,76 +3028,98 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-    </row>
-    <row r="60" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-    </row>
-    <row r="61" spans="1:12" ht="61.8" x14ac:dyDescent="0.25">
+      <c r="H60" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K60" s="2">
+        <v>100</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -3109,94 +3128,112 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-    </row>
-    <row r="63" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K62" s="2">
+        <v>100</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="1"/>
+        <v>180</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-    </row>
-    <row r="64" spans="1:12" ht="66" x14ac:dyDescent="0.25">
+      <c r="H63" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K63" s="2">
+        <v>100</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>4</v>
@@ -3205,46 +3242,36 @@
         <v>4</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G65" s="4"/>
-      <c r="H65" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K65" s="2">
-        <v>100</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -3253,117 +3280,111 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:12" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G67" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J67" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K67" s="2">
-        <v>100</v>
-      </c>
-      <c r="L67" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I68" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J68" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K68" s="2">
-        <v>100</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
       <c r="L68" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="H69" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-    </row>
-    <row r="70" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L69" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -3371,67 +3392,89 @@
       <c r="K70" s="4"/>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-    </row>
-    <row r="72" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H71" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-    </row>
-    <row r="73" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L72" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>4</v>
@@ -3440,7 +3483,7 @@
         <v>4</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -3449,102 +3492,116 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="G75" s="4"/>
-      <c r="H75" s="4" t="s">
-        <v>199</v>
-      </c>
+      <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L75" s="4"/>
+    </row>
+    <row r="76" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-    </row>
-    <row r="77" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="H76" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K76" s="2">
+        <v>100</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -3553,265 +3610,269 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>206</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
       <c r="L78" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G79" s="4"/>
       <c r="H79" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
+      <c r="H80" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-    </row>
-    <row r="81" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="L80" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
+        <v>225</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>226</v>
+      </c>
       <c r="L81" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
+      <c r="H82" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-    </row>
-    <row r="83" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="L82" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="G83" s="4"/>
-      <c r="H83" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="I83" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K83" s="2">
-        <v>100</v>
-      </c>
-      <c r="L83" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+    </row>
+    <row r="84" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+      <c r="H84" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-    </row>
-    <row r="85" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="L84" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="G85" s="4"/>
-      <c r="H85" s="4" t="s">
-        <v>224</v>
-      </c>
+      <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
-      <c r="L85" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L85" s="4"/>
+    </row>
+    <row r="86" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="1"/>
+        <v>235</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
@@ -3819,255 +3880,283 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K87" s="4" t="s">
-        <v>126</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
       <c r="L87" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K88" s="2">
+        <v>100</v>
+      </c>
       <c r="L88" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>234</v>
+        <v>73</v>
+      </c>
+      <c r="K89" s="2">
+        <v>100</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="G90" s="4"/>
-      <c r="H90" s="4" t="s">
-        <v>224</v>
-      </c>
+      <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="L90" s="4"/>
+    </row>
+    <row r="91" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
-    </row>
-    <row r="92" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="H91" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="K91" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="L92" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
+      <c r="H93" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-    </row>
-    <row r="94" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="L93" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-    </row>
-    <row r="95" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="L94" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="45" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>4</v>
@@ -4076,501 +4165,209 @@
         <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="L95" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K96" s="2">
-        <v>100</v>
+        <v>265</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K97" s="2">
-        <v>100</v>
+        <v>270</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" ht="31.2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="H98" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="L98" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G99" s="4"/>
+        <v>277</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="H99" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>256</v>
+        <v>53</v>
+      </c>
+      <c r="K99" s="2">
+        <v>100</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="51" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>126</v>
+        <v>53</v>
+      </c>
+      <c r="K100" s="2">
+        <v>100</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-    </row>
-    <row r="102" spans="1:12" ht="66" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="I102" s="4"/>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="L103" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I104" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="L104" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="K105" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="L105" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="I106" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="L106" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="L107" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K108" s="2">
-        <v>100</v>
-      </c>
-      <c r="L108" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I109" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K109" s="2">
-        <v>100</v>
-      </c>
-      <c r="L109" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R109" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>